--- a/src/test/resources/test-data/BrowserTest.xlsx
+++ b/src/test/resources/test-data/BrowserTest.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrian/Documents/work/projects/virtuoso-skeleton/src/test/resources/test-data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12690" windowHeight="3975" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Input Values" sheetId="1" r:id="rId1"/>
     <sheet name="Expected Results" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1:I10"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -39,7 +35,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -91,6 +87,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -361,13 +360,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,9 +386,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
